--- a/LABORATORIO/PECL1/Viabilidad.xlsx
+++ b/LABORATORIO/PECL1/Viabilidad.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\GitHub\Gestion-de-Proyectos\LABORATORIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\GitHub\Gestion-de-Proyectos\LABORATORIO\PECL1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF1FC19-107F-46A7-899A-B9D4EEB36359}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFDD28E-6C64-45B3-B034-E917582D9D82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="49">
   <si>
     <t>AÑO 1</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>Al ser la alternatuva pesimista los gastos generales disminuyen 5% anualmente</t>
+  </si>
+  <si>
+    <t>Los gastos de publicidad aumentan mucho al expandirse internacionalmente</t>
+  </si>
+  <si>
+    <t>Los gastos de publicidad aumentan a partir del tercer año para intentar mejorar los ingresos</t>
+  </si>
+  <si>
+    <t>Los gastos de publicidad aumentan poco a poco</t>
   </si>
 </sst>
 </file>
@@ -333,6 +342,18 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -345,37 +366,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -399,7 +390,25 @@
     <xf numFmtId="44" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -717,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,9 +747,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,23 +767,23 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="6">
         <v>1000</v>
       </c>
@@ -792,11 +801,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="6">
         <v>3500</v>
       </c>
@@ -814,11 +823,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="6">
         <v>2500</v>
       </c>
@@ -836,11 +845,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="2">
         <v>750</v>
       </c>
@@ -858,11 +867,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="2">
         <v>4000</v>
       </c>
@@ -880,11 +889,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="2">
         <v>3500</v>
       </c>
@@ -902,11 +911,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="2">
         <v>25000</v>
       </c>
@@ -924,11 +933,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="2">
         <v>4200</v>
       </c>
@@ -946,11 +955,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="3">
         <f>+D3+D4+D6+D7+D8+D9+D10</f>
         <v>41950</v>
@@ -973,38 +982,38 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="27">
         <f>D11+E11+F11+G11+H11</f>
         <v>42350</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="2">
         <f>D3/5</f>
         <v>200</v>
@@ -1027,11 +1036,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="2">
         <f>D4/5</f>
         <v>700</v>
@@ -1054,11 +1063,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="2">
         <f>D7/5</f>
         <v>800</v>
@@ -1081,11 +1090,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="2">
         <f>D8/5</f>
         <v>700</v>
@@ -1108,11 +1117,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="2">
         <f>D9/5</f>
         <v>5000</v>
@@ -1135,11 +1144,11 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="2">
         <f>D10/5</f>
         <v>840</v>
@@ -1162,11 +1171,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="3">
         <f>D14+D15+D17+D18+D19+D16</f>
         <v>8240</v>
@@ -1189,38 +1198,38 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30">
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="27">
         <f>D20+E20+F20+G20+H20</f>
         <v>41200</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6">
         <v>150000</v>
@@ -1236,11 +1245,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="4">
         <f>10*5000</f>
         <v>50000</v>
@@ -1259,11 +1268,11 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="5">
         <f>D24+D23</f>
         <v>50000</v>
@@ -1286,23 +1295,23 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="2">
         <v>124984.5</v>
       </c>
@@ -1324,11 +1333,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="2">
         <v>3600</v>
       </c>
@@ -1350,11 +1359,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="2">
         <v>5000</v>
       </c>
@@ -1376,11 +1385,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="2">
         <v>465</v>
       </c>
@@ -1402,11 +1411,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="2">
         <f>D20</f>
         <v>8240</v>
@@ -1429,277 +1438,310 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>15000</v>
+      </c>
+      <c r="F32" s="2">
+        <v>25000</v>
+      </c>
+      <c r="G32" s="2">
+        <v>35000</v>
+      </c>
+      <c r="H32" s="2">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="2">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="2">
         <v>2000</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E33" s="2">
         <v>2000</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F33" s="2">
         <v>2000</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G33" s="2">
         <v>2000</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H33" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="3">
-        <f>D27+D28+D29+D30+D31+D32</f>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="3">
+        <f>D27+D28+D29+D30+D31+D32+D33</f>
         <v>144289.5</v>
       </c>
-      <c r="E33" s="3">
-        <f t="shared" ref="E33:H33" si="4">E27+E28+E29+E30+E31+E32</f>
-        <v>151455.97500000001</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="E34" s="3">
+        <f t="shared" ref="E34:H34" si="4">E27+E28+E29+E30+E31+E32+E33</f>
+        <v>166455.97500000001</v>
+      </c>
+      <c r="F34" s="3">
         <f t="shared" si="4"/>
-        <v>159054.33375000002</v>
-      </c>
-      <c r="G33" s="3">
+        <v>184054.33375000002</v>
+      </c>
+      <c r="G34" s="3">
         <f t="shared" si="4"/>
-        <v>167117.3628375</v>
-      </c>
-      <c r="H33" s="3">
+        <v>202117.3628375</v>
+      </c>
+      <c r="H34" s="3">
         <f t="shared" si="4"/>
-        <v>175681.17337537502</v>
-      </c>
-      <c r="J33" s="20" t="s">
+        <v>230681.17337537502</v>
+      </c>
+      <c r="J34" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="22"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="30"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="J34" s="14" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="J35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="16"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="4">
-        <f>D25-D33-D11</f>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="4">
+        <f>D25-D34-D11</f>
         <v>-136239.5</v>
       </c>
-      <c r="E35" s="4">
-        <f>E25-E33-E11</f>
-        <v>198444.02499999999</v>
-      </c>
-      <c r="F35" s="4">
-        <f>F25-F33-F11</f>
-        <v>290845.66625000001</v>
-      </c>
-      <c r="G35" s="4">
-        <f>G25-G33-G11</f>
-        <v>407782.6371625</v>
-      </c>
-      <c r="H35" s="4">
-        <f>H25-H33-H11</f>
-        <v>574218.82662462501</v>
-      </c>
-      <c r="J35" s="14" t="s">
+      <c r="E36" s="4">
+        <f>E25-E34-E11</f>
+        <v>183444.02499999999</v>
+      </c>
+      <c r="F36" s="4">
+        <f>F25-F34-F11</f>
+        <v>265845.66625000001</v>
+      </c>
+      <c r="G36" s="4">
+        <f>G25-G34-G11</f>
+        <v>372782.6371625</v>
+      </c>
+      <c r="H36" s="4">
+        <f>H25-H34-H11</f>
+        <v>519218.82662462501</v>
+      </c>
+      <c r="J36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="16"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="J36" s="14" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="J37" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="16"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="4">
-        <f>D35*0.2</f>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="10"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="4">
+        <f>D36*0.2</f>
         <v>-27247.9</v>
       </c>
-      <c r="E37" s="4">
-        <f t="shared" ref="E37:H37" si="5">E35*0.2</f>
-        <v>39688.805</v>
-      </c>
-      <c r="F37" s="4">
+      <c r="E38" s="4">
+        <f t="shared" ref="E38:H38" si="5">E36*0.2</f>
+        <v>36688.805</v>
+      </c>
+      <c r="F38" s="4">
         <f t="shared" si="5"/>
-        <v>58169.133250000006</v>
-      </c>
-      <c r="G37" s="4">
+        <v>53169.133250000006</v>
+      </c>
+      <c r="G38" s="4">
         <f t="shared" si="5"/>
-        <v>81556.527432500006</v>
-      </c>
-      <c r="H37" s="4">
+        <v>74556.527432500006</v>
+      </c>
+      <c r="H38" s="4">
         <f t="shared" si="5"/>
-        <v>114843.76532492501</v>
-      </c>
-      <c r="J37" s="14" t="s">
+        <v>103843.76532492501</v>
+      </c>
+      <c r="J38" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="16"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="10"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="J38" s="14" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="J39" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="16"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="4">
-        <f>D35-D37</f>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="4">
+        <f>D36-D38</f>
         <v>-108991.6</v>
       </c>
-      <c r="E39" s="4">
-        <f t="shared" ref="E39:H39" si="6">E35-E37</f>
-        <v>158755.22</v>
-      </c>
-      <c r="F39" s="4">
+      <c r="E40" s="4">
+        <f t="shared" ref="E40:H40" si="6">E36-E38</f>
+        <v>146755.22</v>
+      </c>
+      <c r="F40" s="4">
         <f t="shared" si="6"/>
-        <v>232676.533</v>
-      </c>
-      <c r="G39" s="4">
+        <v>212676.533</v>
+      </c>
+      <c r="G40" s="4">
         <f t="shared" si="6"/>
-        <v>326226.10973000003</v>
-      </c>
-      <c r="H39" s="4">
+        <v>298226.10973000003</v>
+      </c>
+      <c r="H40" s="4">
         <f t="shared" si="6"/>
-        <v>459375.0612997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+        <v>415375.0612997</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="5">
-        <f>D39</f>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="5">
+        <f>D40</f>
         <v>-108991.6</v>
       </c>
-      <c r="E41" s="5">
-        <f>D41+E39</f>
-        <v>49763.619999999995</v>
-      </c>
-      <c r="F41" s="5">
-        <f t="shared" ref="F41:H41" si="7">E41+F39</f>
-        <v>282440.15299999999</v>
-      </c>
-      <c r="G41" s="5">
+      <c r="E42" s="5">
+        <f>D42+E40</f>
+        <v>37763.619999999995</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" ref="F42:H42" si="7">E42+F40</f>
+        <v>250440.15299999999</v>
+      </c>
+      <c r="G42" s="5">
         <f t="shared" si="7"/>
-        <v>608666.26273000007</v>
-      </c>
-      <c r="H41" s="5">
+        <v>548666.26273000007</v>
+      </c>
+      <c r="H42" s="5">
         <f t="shared" si="7"/>
-        <v>1068041.3240297001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+        <v>964041.32402970013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9">
-        <f>-D12+(D39/(1+0.05))+(E39/((1+0.05)^2))+(F39/((1+0.05)^3))+(G39/((1+0.05)^4))+(H39/((1+0.05)^5))</f>
-        <v>827158.28665888519</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13">
+        <f>-D12+(D40/(1+0.05))+(E40/((1+0.05)^2))+(F40/((1+0.05)^3))+(G40/((1+0.05)^4))+(H40/((1+0.05)^5))</f>
+        <v>741486.36032797419</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="10">
-        <f>H41</f>
-        <v>1068041.3240297001</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="14">
+        <f>H42</f>
+        <v>964041.32402970013</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="J38:N38"/>
+  <mergeCells count="55">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="J36:N36"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="J34:N34"/>
     <mergeCell ref="D21:H21"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="A24:C24"/>
@@ -1726,32 +1768,28 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A33:C33"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="J36:N36"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="J40:N40"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="D45:H45"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="J37:N37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1763,10 +1801,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,16 +1815,16 @@
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="27.7109375" customWidth="1"/>
+    <col min="14" max="14" width="45.7109375" customWidth="1"/>
     <col min="15" max="15" width="19.140625" customWidth="1"/>
     <col min="16" max="16" width="17" customWidth="1"/>
     <col min="22" max="22" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1804,23 +1842,23 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="7">
         <v>1000</v>
       </c>
@@ -1838,11 +1876,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="7">
         <v>3500</v>
       </c>
@@ -1860,11 +1898,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="7">
         <v>2500</v>
       </c>
@@ -1882,11 +1920,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="2">
         <v>750</v>
       </c>
@@ -1904,11 +1942,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="2">
         <v>4000</v>
       </c>
@@ -1926,11 +1964,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="2">
         <v>3500</v>
       </c>
@@ -1948,11 +1986,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="2">
         <v>25000</v>
       </c>
@@ -1970,11 +2008,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="2">
         <v>4200</v>
       </c>
@@ -1992,11 +2030,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="3">
         <f>+D3+D4+D6+D7+D8+D9+D10</f>
         <v>41950</v>
@@ -2019,38 +2057,38 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="27">
         <f>D11+E11+F11+G11+H11</f>
         <v>42350</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="2">
         <f>D3/5</f>
         <v>200</v>
@@ -2073,11 +2111,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="2">
         <f>D4/5</f>
         <v>700</v>
@@ -2100,11 +2138,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="2">
         <f>D7/5</f>
         <v>800</v>
@@ -2127,11 +2165,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="2">
         <f>D8/5</f>
         <v>700</v>
@@ -2154,11 +2192,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="2">
         <f>D9/5</f>
         <v>5000</v>
@@ -2181,11 +2219,11 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="2">
         <f>D10/5</f>
         <v>840</v>
@@ -2208,11 +2246,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="3">
         <f>D14+D15+D17+D18+D19+D16</f>
         <v>8240</v>
@@ -2235,38 +2273,38 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30">
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="27">
         <f>D20+E20+F20+G20+H20</f>
         <v>41200</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6">
         <v>75000</v>
@@ -2282,11 +2320,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="4">
         <v>35000</v>
       </c>
@@ -2304,11 +2342,11 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="5">
         <f>D24+D23</f>
         <v>35000</v>
@@ -2331,23 +2369,23 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="2">
         <v>124984.5</v>
       </c>
@@ -2369,11 +2407,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="2">
         <v>3600</v>
       </c>
@@ -2395,11 +2433,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="2">
         <v>5000</v>
       </c>
@@ -2421,11 +2459,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="2">
         <v>465</v>
       </c>
@@ -2447,11 +2485,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="2">
         <f>D20</f>
         <v>8240</v>
@@ -2474,305 +2512,324 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F32" s="2">
+        <v>7000</v>
+      </c>
+      <c r="G32" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H32" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="2">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="2">
         <v>2000</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E33" s="2">
         <v>2000</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F33" s="2">
         <v>2000</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G33" s="2">
         <v>2000</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H33" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="3">
-        <f>D27+D28+D29+D30+D31+D32</f>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="3">
+        <f>D27+D28+D29+D30+D31+D32+D33</f>
         <v>144289.5</v>
       </c>
-      <c r="E33" s="3">
-        <f t="shared" ref="E33:H33" si="3">E27+E28+E29+E30+E31+E32</f>
-        <v>150955.97500000001</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="E34" s="3">
+        <f t="shared" ref="E34:H34" si="3">E27+E28+E29+E30+E31+E32+E33</f>
+        <v>155955.97500000001</v>
+      </c>
+      <c r="F34" s="3">
         <f t="shared" si="3"/>
-        <v>157954.33375000002</v>
-      </c>
-      <c r="G33" s="3">
+        <v>164954.33375000002</v>
+      </c>
+      <c r="G34" s="3">
         <f t="shared" si="3"/>
-        <v>165301.1128375</v>
-      </c>
-      <c r="H33" s="3">
+        <v>175301.1128375</v>
+      </c>
+      <c r="H34" s="3">
         <f t="shared" si="3"/>
-        <v>173013.67337537502</v>
-      </c>
-      <c r="J33" s="20" t="s">
+        <v>185013.67337537502</v>
+      </c>
+      <c r="J34" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="22"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="30"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="J34" s="14" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="J35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="16"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="4">
-        <f>D25-D33-D11+D23</f>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="4">
+        <f>D25-D34-D11+D23</f>
         <v>-151239.5</v>
       </c>
-      <c r="E35" s="4">
-        <f>E25-E33-E11+E23</f>
-        <v>98944.024999999994</v>
-      </c>
-      <c r="F35" s="4">
-        <f>F25-F33-F11+F23</f>
-        <v>146945.66624999998</v>
-      </c>
-      <c r="G35" s="4">
-        <f>G25-G33-G11+H23</f>
-        <v>184598.8871625</v>
-      </c>
-      <c r="H35" s="4">
-        <f>H25-H33-H11+H23</f>
-        <v>226886.32662462498</v>
-      </c>
-      <c r="J35" s="14" t="s">
+      <c r="E36" s="4">
+        <f>E25-E34-E11+E23</f>
+        <v>93944.024999999994</v>
+      </c>
+      <c r="F36" s="4">
+        <f>F25-F34-F11+F23</f>
+        <v>139945.66624999998</v>
+      </c>
+      <c r="G36" s="4">
+        <f>G25-G34-G11+H23</f>
+        <v>174598.8871625</v>
+      </c>
+      <c r="H36" s="4">
+        <f>H25-H34-H11+H23</f>
+        <v>214886.32662462498</v>
+      </c>
+      <c r="J36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="16"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="J36" s="14" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="J37" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="16"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="4">
-        <f>D35*0.2</f>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="10"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="4">
+        <f>D36*0.2</f>
         <v>-30247.9</v>
       </c>
-      <c r="E37" s="4">
-        <f t="shared" ref="E37:H37" si="4">E35*0.2</f>
-        <v>19788.805</v>
-      </c>
-      <c r="F37" s="4">
+      <c r="E38" s="4">
+        <f t="shared" ref="E38:H38" si="4">E36*0.2</f>
+        <v>18788.805</v>
+      </c>
+      <c r="F38" s="4">
         <f t="shared" si="4"/>
-        <v>29389.133249999999</v>
-      </c>
-      <c r="G37" s="4">
+        <v>27989.133249999999</v>
+      </c>
+      <c r="G38" s="4">
         <f t="shared" si="4"/>
-        <v>36919.777432499999</v>
-      </c>
-      <c r="H37" s="4">
+        <v>34919.777432499999</v>
+      </c>
+      <c r="H38" s="4">
         <f t="shared" si="4"/>
-        <v>45377.265324925</v>
-      </c>
-      <c r="J37" s="14" t="s">
+        <v>42977.265324925</v>
+      </c>
+      <c r="J38" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="16"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="10"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="J38" s="14" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="J39" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="16"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="4">
-        <f>D35-D37</f>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="4">
+        <f>D36-D38</f>
         <v>-120991.6</v>
       </c>
-      <c r="E39" s="4">
-        <f t="shared" ref="E39:H39" si="5">E35-E37</f>
-        <v>79155.22</v>
-      </c>
-      <c r="F39" s="4">
+      <c r="E40" s="4">
+        <f t="shared" ref="E40:H40" si="5">E36-E38</f>
+        <v>75155.22</v>
+      </c>
+      <c r="F40" s="4">
         <f t="shared" si="5"/>
-        <v>117556.53299999998</v>
-      </c>
-      <c r="G39" s="4">
+        <v>111956.53299999998</v>
+      </c>
+      <c r="G40" s="4">
         <f t="shared" si="5"/>
-        <v>147679.10973</v>
-      </c>
-      <c r="H39" s="4">
+        <v>139679.10973</v>
+      </c>
+      <c r="H40" s="4">
         <f t="shared" si="5"/>
-        <v>181509.0612997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+        <v>171909.0612997</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="5">
-        <f>D39</f>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="5">
+        <f>D40</f>
         <v>-120991.6</v>
       </c>
-      <c r="E41" s="5">
-        <f>D41+E39</f>
-        <v>-41836.380000000005</v>
-      </c>
-      <c r="F41" s="5">
-        <f t="shared" ref="F41:H41" si="6">E41+F39</f>
-        <v>75720.152999999977</v>
-      </c>
-      <c r="G41" s="5">
+      <c r="E42" s="5">
+        <f>D42+E40</f>
+        <v>-45836.380000000005</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" ref="F42:H42" si="6">E42+F40</f>
+        <v>66120.152999999977</v>
+      </c>
+      <c r="G42" s="5">
         <f t="shared" si="6"/>
-        <v>223399.26272999996</v>
-      </c>
-      <c r="H41" s="5">
+        <v>205799.26272999996</v>
+      </c>
+      <c r="H42" s="5">
         <f t="shared" si="6"/>
-        <v>404908.32402969996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+        <v>377708.32402969996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9">
-        <f>-D12+(D39/(1+0.05))+(E39/((1+0.05)^2))+(F39/((1+0.05)^3))+(G39/((1+0.05)^4))+(H39/((1+0.05)^5))</f>
-        <v>279478.84386351856</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13">
+        <f>-D12+(D40/(1+0.05))+(E40/((1+0.05)^2))+(F40/((1+0.05)^3))+(G40/((1+0.05)^4))+(H40/((1+0.05)^5))</f>
+        <v>256909.76440147776</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="10">
-        <f>H41</f>
-        <v>404908.32402969996</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="14">
+        <f>H42</f>
+        <v>377708.32402969996</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A36:H36"/>
+  <mergeCells count="55">
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:C42"/>
     <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:H44"/>
     <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="J37:N37"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="J36:N36"/>
     <mergeCell ref="A30:C30"/>
-    <mergeCell ref="J33:N33"/>
     <mergeCell ref="J34:N34"/>
     <mergeCell ref="J35:N35"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="J36:N36"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:C3"/>
@@ -2791,12 +2848,22 @@
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="D21:H21"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2805,10 +2872,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2819,16 +2886,16 @@
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="29.7109375" customWidth="1"/>
+    <col min="14" max="14" width="49.140625" customWidth="1"/>
     <col min="15" max="15" width="19.140625" customWidth="1"/>
     <col min="16" max="16" width="17" customWidth="1"/>
     <col min="22" max="22" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2846,23 +2913,23 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="7">
         <v>1000</v>
       </c>
@@ -2880,11 +2947,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="7">
         <v>3500</v>
       </c>
@@ -2902,11 +2969,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="7">
         <v>2500</v>
       </c>
@@ -2924,11 +2991,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="2">
         <v>750</v>
       </c>
@@ -2946,11 +3013,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="2">
         <v>4000</v>
       </c>
@@ -2968,11 +3035,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="2">
         <v>3500</v>
       </c>
@@ -2990,11 +3057,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="2">
         <v>25000</v>
       </c>
@@ -3012,11 +3079,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="2">
         <v>4200</v>
       </c>
@@ -3034,11 +3101,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="3">
         <f>+D3+D4+D6+D7+D8+D9+D10</f>
         <v>41950</v>
@@ -3061,38 +3128,38 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="27">
         <f>D11+E11+F11+G11+H11</f>
         <v>42350</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="2">
         <f>D3/5</f>
         <v>200</v>
@@ -3115,11 +3182,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="2">
         <f>D4/5</f>
         <v>700</v>
@@ -3142,11 +3209,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="2">
         <f>D7/5</f>
         <v>800</v>
@@ -3169,11 +3236,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="2">
         <f>D8/5</f>
         <v>700</v>
@@ -3196,11 +3263,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="2">
         <f>D9/5</f>
         <v>5000</v>
@@ -3223,11 +3290,11 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="2">
         <f>D10/5</f>
         <v>840</v>
@@ -3250,11 +3317,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="3">
         <f>D14+D15+D17+D18+D19+D16</f>
         <v>8240</v>
@@ -3277,38 +3344,38 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30">
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="27">
         <f>D20+E20+F20+G20+H20</f>
         <v>41200</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6">
         <v>5000</v>
@@ -3324,11 +3391,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="4">
         <v>10000</v>
       </c>
@@ -3346,11 +3413,11 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="5">
         <f>D24+D23</f>
         <v>10000</v>
@@ -3373,23 +3440,23 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="2">
         <v>124984.5</v>
       </c>
@@ -3411,11 +3478,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="2">
         <v>3600</v>
       </c>
@@ -3437,11 +3504,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="2">
         <v>5000</v>
       </c>
@@ -3463,11 +3530,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="2">
         <v>465</v>
       </c>
@@ -3489,11 +3556,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="2">
         <f>D20</f>
         <v>8240</v>
@@ -3516,278 +3583,309 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F32" s="2">
+        <v>15000</v>
+      </c>
+      <c r="G32" s="2">
+        <v>20000</v>
+      </c>
+      <c r="H32" s="2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="2">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="2">
         <v>2000</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E33" s="2">
         <v>2000</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F33" s="2">
         <v>2000</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G33" s="2">
         <v>2000</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H33" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="3">
-        <f>D27+D28+D29+D30+D31+D32</f>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="3">
+        <f>D27+D28+D29+D30+D31+D32+D33</f>
         <v>144289.5</v>
       </c>
-      <c r="E33" s="3">
-        <f t="shared" ref="E33:H33" si="5">E27+E28+E29+E30+E31+E32</f>
-        <v>150455.97500000001</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="E34" s="3">
+        <f t="shared" ref="E34:H34" si="5">E27+E28+E29+E30+E31+E32+E33</f>
+        <v>154455.97500000001</v>
+      </c>
+      <c r="F34" s="3">
         <f t="shared" si="5"/>
-        <v>156954.33375000002</v>
-      </c>
-      <c r="G33" s="3">
+        <v>171954.33375000002</v>
+      </c>
+      <c r="G34" s="3">
         <f t="shared" si="5"/>
-        <v>163799.8628375</v>
-      </c>
-      <c r="H33" s="3">
+        <v>183799.8628375</v>
+      </c>
+      <c r="H34" s="3">
         <f t="shared" si="5"/>
-        <v>171008.67337537502</v>
-      </c>
-      <c r="J33" s="20" t="s">
+        <v>196008.67337537502</v>
+      </c>
+      <c r="J34" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="22"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="30"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="J34" s="14" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="J35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="16"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="4">
-        <f>D25-D33-D11</f>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="4">
+        <f>D25-D34-D11</f>
         <v>-176239.5</v>
       </c>
-      <c r="E35" s="4">
-        <f>E25-E33-E11</f>
-        <v>-70555.975000000006</v>
-      </c>
-      <c r="F35" s="4">
-        <f>F25-F33-F11</f>
-        <v>-82054.33375000002</v>
-      </c>
-      <c r="G35" s="4">
-        <f>G25-G33-G11</f>
-        <v>-86399.862837499997</v>
-      </c>
-      <c r="H35" s="4">
-        <f>H25-H33-H11</f>
-        <v>-89608.673375375016</v>
-      </c>
-      <c r="J35" s="14" t="s">
+      <c r="E36" s="4">
+        <f>E25-E34-E11</f>
+        <v>-74555.975000000006</v>
+      </c>
+      <c r="F36" s="4">
+        <f>F25-F34-F11</f>
+        <v>-97054.33375000002</v>
+      </c>
+      <c r="G36" s="4">
+        <f>G25-G34-G11</f>
+        <v>-106399.8628375</v>
+      </c>
+      <c r="H36" s="4">
+        <f>H25-H34-H11</f>
+        <v>-114608.67337537502</v>
+      </c>
+      <c r="J36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="16"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="J36" s="14" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="J37" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="16"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="4">
-        <f>D35*0.2</f>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="10"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="4">
+        <f>D36*0.2</f>
         <v>-35247.9</v>
       </c>
-      <c r="E37" s="4">
-        <f t="shared" ref="E37:H37" si="6">E35*0.2</f>
-        <v>-14111.195000000002</v>
-      </c>
-      <c r="F37" s="4">
+      <c r="E38" s="4">
+        <f t="shared" ref="E38:H38" si="6">E36*0.2</f>
+        <v>-14911.195000000002</v>
+      </c>
+      <c r="F38" s="4">
         <f t="shared" si="6"/>
-        <v>-16410.866750000005</v>
-      </c>
-      <c r="G37" s="4">
+        <v>-19410.866750000005</v>
+      </c>
+      <c r="G38" s="4">
         <f t="shared" si="6"/>
-        <v>-17279.972567500001</v>
-      </c>
-      <c r="H37" s="4">
+        <v>-21279.972567500001</v>
+      </c>
+      <c r="H38" s="4">
         <f t="shared" si="6"/>
-        <v>-17921.734675075004</v>
-      </c>
-      <c r="J37" s="14" t="s">
+        <v>-22921.734675075004</v>
+      </c>
+      <c r="J38" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="16"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="10"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="J38" s="14" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="J39" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="16"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="4">
-        <f>D35-D37</f>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="4">
+        <f>D36-D38</f>
         <v>-140991.6</v>
       </c>
-      <c r="E39" s="4">
-        <f t="shared" ref="E39:H39" si="7">E35-E37</f>
-        <v>-56444.780000000006</v>
-      </c>
-      <c r="F39" s="4">
-        <f>F35-F37</f>
-        <v>-65643.467000000019</v>
-      </c>
-      <c r="G39" s="4">
+      <c r="E40" s="4">
+        <f t="shared" ref="E40:H40" si="7">E36-E38</f>
+        <v>-59644.780000000006</v>
+      </c>
+      <c r="F40" s="4">
+        <f>F36-F38</f>
+        <v>-77643.467000000019</v>
+      </c>
+      <c r="G40" s="4">
         <f t="shared" si="7"/>
-        <v>-69119.890270000004</v>
-      </c>
-      <c r="H39" s="4">
+        <v>-85119.890270000004</v>
+      </c>
+      <c r="H40" s="4">
         <f t="shared" si="7"/>
-        <v>-71686.938700300016</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+        <v>-91686.938700300016</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="5">
-        <f>D39</f>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="5">
+        <f>D40</f>
         <v>-140991.6</v>
       </c>
-      <c r="E41" s="5">
-        <f t="shared" ref="E41:H41" si="8">E39</f>
-        <v>-56444.780000000006</v>
-      </c>
-      <c r="F41" s="5">
+      <c r="E42" s="5">
+        <f t="shared" ref="E42:H42" si="8">E40</f>
+        <v>-59644.780000000006</v>
+      </c>
+      <c r="F42" s="5">
         <f t="shared" si="8"/>
-        <v>-65643.467000000019</v>
-      </c>
-      <c r="G41" s="5">
+        <v>-77643.467000000019</v>
+      </c>
+      <c r="G42" s="5">
         <f t="shared" si="8"/>
-        <v>-69119.890270000004</v>
-      </c>
-      <c r="H41" s="5">
+        <v>-85119.890270000004</v>
+      </c>
+      <c r="H42" s="5">
         <f t="shared" si="8"/>
-        <v>-71686.938700300016</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+        <v>-91686.938700300016</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9">
-        <f>-D12+(D39/(1+0.05))+(E39/((1+0.05)^2))+(F39/((1+0.05)^3))+(G39/((1+0.05)^4))+(H39/((1+0.05)^5))</f>
-        <v>-397563.78559153166</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13">
+        <f>-D12+(D40/(1+0.05))+(E40/((1+0.05)^2))+(F40/((1+0.05)^3))+(G40/((1+0.05)^4))+(H40/((1+0.05)^5))</f>
+        <v>-439666.09403101442</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="10">
-        <f>H41</f>
-        <v>-71686.938700300016</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="14">
+        <f>H42</f>
+        <v>-91686.938700300016</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="A38:H38"/>
+  <mergeCells count="55">
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="A39:H39"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
@@ -3798,15 +3896,6 @@
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:C3"/>
@@ -3821,24 +3910,31 @@
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D21:H21"/>
     <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:H46"/>
     <mergeCell ref="J34:N34"/>
     <mergeCell ref="J35:N35"/>
     <mergeCell ref="J36:N36"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="J40:N40"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/LABORATORIO/PECL1/Viabilidad.xlsx
+++ b/LABORATORIO/PECL1/Viabilidad.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\GitHub\Gestion-de-Proyectos\LABORATORIO\PECL1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto\OneDrive\Documentos\GitHub\Gestion-de-Proyectos\LABORATORIO\PECL1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFDD28E-6C64-45B3-B034-E917582D9D82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{CDFDD28E-6C64-45B3-B034-E917582D9D82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{6944DD4A-9FAA-40DE-AB23-A85C1809BF88}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Viabilidad_Optimista" sheetId="1" r:id="rId1"/>
@@ -342,6 +342,12 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -351,34 +357,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -399,16 +390,25 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,9 +747,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,23 +767,23 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="6">
         <v>1000</v>
       </c>
@@ -801,11 +801,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="6">
         <v>3500</v>
       </c>
@@ -823,11 +823,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="6">
         <v>2500</v>
       </c>
@@ -845,11 +845,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="2">
         <v>750</v>
       </c>
@@ -867,11 +867,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="2">
         <v>4000</v>
       </c>
@@ -889,11 +889,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="2">
         <v>3500</v>
       </c>
@@ -911,13 +911,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="2">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -933,11 +933,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="2">
         <v>4200</v>
       </c>
@@ -955,14 +955,14 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="3">
         <f>+D3+D4+D6+D7+D8+D9+D10</f>
-        <v>41950</v>
+        <v>26950</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ref="E11:H11" si="0">+E3+E4+E6+E7+E8+E9+E10</f>
@@ -982,38 +982,38 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="27">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="16">
         <f>D11+E11+F11+G11+H11</f>
-        <v>42350</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+        <v>27350</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="2">
         <f>D3/5</f>
         <v>200</v>
@@ -1036,11 +1036,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="2">
         <f>D4/5</f>
         <v>700</v>
@@ -1063,11 +1063,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="2">
         <f>D7/5</f>
         <v>800</v>
@@ -1090,11 +1090,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="2">
         <f>D8/5</f>
         <v>700</v>
@@ -1117,38 +1117,38 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="2">
         <f>D9/5</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E18" s="2">
         <f>D9/5</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="F18" s="2">
         <f>D9/5</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G18" s="2">
         <f>D9/5</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="H18" s="2">
         <f>D9/5</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="2">
         <f>D10/5</f>
         <v>840</v>
@@ -1171,65 +1171,65 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="3">
         <f>D14+D15+D17+D18+D19+D16</f>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ref="E20:H20" si="1">E14+E15+E17+E18+E19+E16</f>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="1"/>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="1"/>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="1"/>
-        <v>8240</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="27">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="16">
         <f>D20+E20+F20+G20+H20</f>
-        <v>41200</v>
-      </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+        <v>26200</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6">
         <v>150000</v>
@@ -1245,11 +1245,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="4">
         <f>10*5000</f>
         <v>50000</v>
@@ -1268,11 +1268,11 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="5">
         <f>D24+D23</f>
         <v>50000</v>
@@ -1295,23 +1295,23 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="2">
         <v>124984.5</v>
       </c>
@@ -1333,11 +1333,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="2">
         <v>3600</v>
       </c>
@@ -1359,11 +1359,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="2">
         <v>5000</v>
       </c>
@@ -1385,11 +1385,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="2">
         <v>465</v>
       </c>
@@ -1411,38 +1411,38 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="2">
         <f>D20</f>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="E31" s="2">
         <f>E20</f>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="F31" s="2">
         <f>F20</f>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="G31" s="2">
         <f>G20</f>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="H31" s="2">
         <f>H20</f>
-        <v>8240</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2">
         <v>15000</v>
@@ -1458,11 +1458,11 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="2">
         <v>2000</v>
       </c>
@@ -1480,278 +1480,277 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="3">
         <f>D27+D28+D29+D30+D31+D32+D33</f>
-        <v>144289.5</v>
+        <v>141289.5</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" ref="E34:H34" si="4">E27+E28+E29+E30+E31+E32+E33</f>
-        <v>166455.97500000001</v>
+        <v>163455.97500000001</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="4"/>
-        <v>184054.33375000002</v>
+        <v>181054.33375000002</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="4"/>
-        <v>202117.3628375</v>
+        <v>199117.3628375</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="4"/>
-        <v>230681.17337537502</v>
-      </c>
-      <c r="J34" s="28" t="s">
+        <v>227681.17337537502</v>
+      </c>
+      <c r="J34" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="30"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="J35" s="8" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="J35" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="10"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="12"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="4">
         <f>D25-D34-D11</f>
-        <v>-136239.5</v>
+        <v>-118239.5</v>
       </c>
       <c r="E36" s="4">
         <f>E25-E34-E11</f>
-        <v>183444.02499999999</v>
+        <v>186444.02499999999</v>
       </c>
       <c r="F36" s="4">
         <f>F25-F34-F11</f>
-        <v>265845.66625000001</v>
+        <v>268845.66625000001</v>
       </c>
       <c r="G36" s="4">
         <f>G25-G34-G11</f>
-        <v>372782.6371625</v>
+        <v>375782.6371625</v>
       </c>
       <c r="H36" s="4">
         <f>H25-H34-H11</f>
-        <v>519218.82662462501</v>
-      </c>
-      <c r="J36" s="8" t="s">
+        <v>522218.82662462501</v>
+      </c>
+      <c r="J36" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="10"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="12"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="J37" s="8" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="J37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="10"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="12"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="4">
         <f>D36*0.2</f>
-        <v>-27247.9</v>
+        <v>-23647.9</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" ref="E38:H38" si="5">E36*0.2</f>
-        <v>36688.805</v>
+        <v>37288.805</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" si="5"/>
-        <v>53169.133250000006</v>
+        <v>53769.133250000006</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="5"/>
-        <v>74556.527432500006</v>
+        <v>75156.527432500006</v>
       </c>
       <c r="H38" s="4">
         <f t="shared" si="5"/>
-        <v>103843.76532492501</v>
-      </c>
-      <c r="J38" s="8" t="s">
+        <v>104443.76532492501</v>
+      </c>
+      <c r="J38" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="10"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="12"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="J39" s="8" t="s">
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="J39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="10"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="12"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="4">
         <f>D36-D38</f>
-        <v>-108991.6</v>
+        <v>-94591.6</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" ref="E40:H40" si="6">E36-E38</f>
-        <v>146755.22</v>
+        <v>149155.22</v>
       </c>
       <c r="F40" s="4">
         <f t="shared" si="6"/>
-        <v>212676.533</v>
+        <v>215076.533</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="6"/>
-        <v>298226.10973000003</v>
+        <v>300626.10973000003</v>
       </c>
       <c r="H40" s="4">
         <f t="shared" si="6"/>
-        <v>415375.0612997</v>
-      </c>
-      <c r="J40" s="11" t="s">
+        <v>417775.0612997</v>
+      </c>
+      <c r="J40" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="5">
         <f>D40</f>
-        <v>-108991.6</v>
+        <v>-94591.6</v>
       </c>
       <c r="E42" s="5">
         <f>D42+E40</f>
-        <v>37763.619999999995</v>
+        <v>54563.619999999995</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" ref="F42:H42" si="7">E42+F40</f>
-        <v>250440.15299999999</v>
+        <v>269640.15299999999</v>
       </c>
       <c r="G42" s="5">
         <f t="shared" si="7"/>
-        <v>548666.26273000007</v>
+        <v>570266.26273000007</v>
       </c>
       <c r="H42" s="5">
         <f t="shared" si="7"/>
-        <v>964041.32402970013</v>
+        <v>988041.32402970013</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="29">
         <f>-D12+(D40/(1+0.05))+(E40/((1+0.05)^2))+(F40/((1+0.05)^3))+(G40/((1+0.05)^4))+(H40/((1+0.05)^5))</f>
-        <v>741486.36032797419</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+        <v>778305.67576605966</v>
+      </c>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="14">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="30">
         <f>H42</f>
-        <v>964041.32402970013</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+        <v>988041.32402970013</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="J36:N36"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:H37"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:C3"/>
@@ -1768,28 +1767,29 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="J36:N36"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="J34:N34"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:H37"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="J37:N37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1803,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45:H45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,9 +1822,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1842,23 +1842,23 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="7">
         <v>1000</v>
       </c>
@@ -1876,11 +1876,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="7">
         <v>3500</v>
       </c>
@@ -1898,11 +1898,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="7">
         <v>2500</v>
       </c>
@@ -1920,11 +1920,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="2">
         <v>750</v>
       </c>
@@ -1942,11 +1942,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="2">
         <v>4000</v>
       </c>
@@ -1964,11 +1964,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="2">
         <v>3500</v>
       </c>
@@ -1986,13 +1986,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="2">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -2008,11 +2008,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="2">
         <v>4200</v>
       </c>
@@ -2030,14 +2030,14 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="3">
         <f>+D3+D4+D6+D7+D8+D9+D10</f>
-        <v>41950</v>
+        <v>26950</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ref="E11:H11" si="0">+E3+E4+E6+E7+E8+E9+E10</f>
@@ -2057,38 +2057,38 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="27">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="16">
         <f>D11+E11+F11+G11+H11</f>
-        <v>42350</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+        <v>27350</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="2">
         <f>D3/5</f>
         <v>200</v>
@@ -2111,11 +2111,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="2">
         <f>D4/5</f>
         <v>700</v>
@@ -2138,11 +2138,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="2">
         <f>D7/5</f>
         <v>800</v>
@@ -2165,11 +2165,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="2">
         <f>D8/5</f>
         <v>700</v>
@@ -2192,38 +2192,38 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="2">
         <f>D9/5</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E18" s="2">
         <f>D9/5</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="F18" s="2">
         <f>D9/5</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G18" s="2">
         <f>D9/5</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="H18" s="2">
         <f>D9/5</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="2">
         <f>D10/5</f>
         <v>840</v>
@@ -2246,65 +2246,65 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="3">
         <f>D14+D15+D17+D18+D19+D16</f>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ref="E20:H20" si="1">E14+E15+E17+E18+E19+E16</f>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="1"/>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="1"/>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="1"/>
-        <v>8240</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="27">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="16">
         <f>D20+E20+F20+G20+H20</f>
-        <v>41200</v>
-      </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+        <v>26200</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6">
         <v>75000</v>
@@ -2320,11 +2320,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="4">
         <v>35000</v>
       </c>
@@ -2342,11 +2342,11 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="5">
         <f>D24+D23</f>
         <v>35000</v>
@@ -2369,23 +2369,23 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="2">
         <v>124984.5</v>
       </c>
@@ -2407,11 +2407,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="2">
         <v>3600</v>
       </c>
@@ -2433,11 +2433,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="2">
         <v>5000</v>
       </c>
@@ -2459,11 +2459,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="2">
         <v>465</v>
       </c>
@@ -2485,38 +2485,38 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="2">
         <f>D20</f>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="E31" s="2">
         <f>E20</f>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="F31" s="2">
         <f>F20</f>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="G31" s="2">
         <f>G20</f>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="H31" s="2">
         <f>H20</f>
-        <v>8240</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2">
         <v>5000</v>
@@ -2532,11 +2532,11 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="2">
         <v>2000</v>
       </c>
@@ -2554,300 +2554,261 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="3">
         <f>D27+D28+D29+D30+D31+D32+D33</f>
-        <v>144289.5</v>
+        <v>141289.5</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" ref="E34:H34" si="3">E27+E28+E29+E30+E31+E32+E33</f>
-        <v>155955.97500000001</v>
+        <v>152955.97500000001</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="3"/>
-        <v>164954.33375000002</v>
+        <v>161954.33375000002</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="3"/>
-        <v>175301.1128375</v>
+        <v>172301.1128375</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="3"/>
-        <v>185013.67337537502</v>
-      </c>
-      <c r="J34" s="28" t="s">
+        <v>182013.67337537502</v>
+      </c>
+      <c r="J34" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="30"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="J35" s="8" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="J35" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="10"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="12"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="4">
         <f>D25-D34-D11+D23</f>
-        <v>-151239.5</v>
+        <v>-133239.5</v>
       </c>
       <c r="E36" s="4">
         <f>E25-E34-E11+E23</f>
-        <v>93944.024999999994</v>
+        <v>96944.024999999994</v>
       </c>
       <c r="F36" s="4">
         <f>F25-F34-F11+F23</f>
-        <v>139945.66624999998</v>
+        <v>142945.66624999998</v>
       </c>
       <c r="G36" s="4">
         <f>G25-G34-G11+H23</f>
-        <v>174598.8871625</v>
+        <v>177598.8871625</v>
       </c>
       <c r="H36" s="4">
         <f>H25-H34-H11+H23</f>
-        <v>214886.32662462498</v>
-      </c>
-      <c r="J36" s="8" t="s">
+        <v>217886.32662462498</v>
+      </c>
+      <c r="J36" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="10"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="12"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="J37" s="8" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="J37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="10"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="12"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="4">
         <f>D36*0.2</f>
-        <v>-30247.9</v>
+        <v>-26647.9</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" ref="E38:H38" si="4">E36*0.2</f>
-        <v>18788.805</v>
+        <v>19388.805</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" si="4"/>
-        <v>27989.133249999999</v>
+        <v>28589.133249999999</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="4"/>
-        <v>34919.777432499999</v>
+        <v>35519.777432499999</v>
       </c>
       <c r="H38" s="4">
         <f t="shared" si="4"/>
-        <v>42977.265324925</v>
-      </c>
-      <c r="J38" s="8" t="s">
+        <v>43577.265324925</v>
+      </c>
+      <c r="J38" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="10"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="12"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="J39" s="8" t="s">
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="J39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="10"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="12"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="4">
         <f>D36-D38</f>
-        <v>-120991.6</v>
+        <v>-106591.6</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" ref="E40:H40" si="5">E36-E38</f>
-        <v>75155.22</v>
+        <v>77555.22</v>
       </c>
       <c r="F40" s="4">
         <f t="shared" si="5"/>
-        <v>111956.53299999998</v>
+        <v>114356.53299999998</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="5"/>
-        <v>139679.10973</v>
+        <v>142079.10973</v>
       </c>
       <c r="H40" s="4">
         <f t="shared" si="5"/>
-        <v>171909.0612997</v>
-      </c>
-      <c r="J40" s="11" t="s">
+        <v>174309.0612997</v>
+      </c>
+      <c r="J40" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="5">
         <f>D40</f>
-        <v>-120991.6</v>
+        <v>-106591.6</v>
       </c>
       <c r="E42" s="5">
         <f>D42+E40</f>
-        <v>-45836.380000000005</v>
+        <v>-29036.380000000005</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" ref="F42:H42" si="6">E42+F40</f>
-        <v>66120.152999999977</v>
+        <v>85320.152999999977</v>
       </c>
       <c r="G42" s="5">
         <f t="shared" si="6"/>
-        <v>205799.26272999996</v>
+        <v>227399.26272999996</v>
       </c>
       <c r="H42" s="5">
         <f t="shared" si="6"/>
-        <v>377708.32402969996</v>
+        <v>401708.32402969996</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="29">
         <f>-D12+(D40/(1+0.05))+(E40/((1+0.05)^2))+(F40/((1+0.05)^3))+(G40/((1+0.05)^4))+(H40/((1+0.05)^5))</f>
-        <v>256909.76440147776</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+        <v>293729.07983956317</v>
+      </c>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="14">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="30">
         <f>H42</f>
-        <v>377708.32402969996</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+        <v>401708.32402969996</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="J36:N36"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
     <mergeCell ref="J40:N40"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="D21:H21"/>
@@ -2864,6 +2825,45 @@
     <mergeCell ref="J39:N39"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="J36:N36"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2875,7 +2875,7 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2893,9 +2893,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2913,23 +2913,23 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="7">
         <v>1000</v>
       </c>
@@ -2947,11 +2947,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="7">
         <v>3500</v>
       </c>
@@ -2969,11 +2969,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="7">
         <v>2500</v>
       </c>
@@ -2991,11 +2991,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="2">
         <v>750</v>
       </c>
@@ -3013,11 +3013,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="2">
         <v>4000</v>
       </c>
@@ -3035,11 +3035,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="2">
         <v>3500</v>
       </c>
@@ -3057,13 +3057,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="2">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -3079,11 +3079,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="2">
         <v>4200</v>
       </c>
@@ -3101,14 +3101,14 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="3">
         <f>+D3+D4+D6+D7+D8+D9+D10</f>
-        <v>41950</v>
+        <v>26950</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ref="E11:H11" si="0">+E3+E4+E6+E7+E8+E9+E10</f>
@@ -3128,38 +3128,38 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="27">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="16">
         <f>D11+E11+F11+G11+H11</f>
-        <v>42350</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+        <v>27350</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="2">
         <f>D3/5</f>
         <v>200</v>
@@ -3182,11 +3182,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="2">
         <f>D4/5</f>
         <v>700</v>
@@ -3209,11 +3209,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="2">
         <f>D7/5</f>
         <v>800</v>
@@ -3236,11 +3236,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="2">
         <f>D8/5</f>
         <v>700</v>
@@ -3263,38 +3263,38 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="2">
         <f>D9/5</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E18" s="2">
         <f>D9/5</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="F18" s="2">
         <f>D9/5</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G18" s="2">
         <f>D9/5</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="H18" s="2">
         <f>D9/5</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="2">
         <f>D10/5</f>
         <v>840</v>
@@ -3317,65 +3317,65 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="3">
         <f>D14+D15+D17+D18+D19+D16</f>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ref="E20:H20" si="1">E14+E15+E17+E18+E19+E16</f>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="1"/>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="1"/>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="1"/>
-        <v>8240</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="27">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="16">
         <f>D20+E20+F20+G20+H20</f>
-        <v>41200</v>
-      </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+        <v>26200</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6">
         <v>5000</v>
@@ -3391,11 +3391,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="4">
         <v>10000</v>
       </c>
@@ -3413,11 +3413,11 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="5">
         <f>D24+D23</f>
         <v>10000</v>
@@ -3440,23 +3440,23 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="2">
         <v>124984.5</v>
       </c>
@@ -3478,11 +3478,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="2">
         <v>3600</v>
       </c>
@@ -3504,11 +3504,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="2">
         <v>5000</v>
       </c>
@@ -3530,11 +3530,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="2">
         <v>465</v>
       </c>
@@ -3556,38 +3556,38 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="2">
         <f>D20</f>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="E31" s="2">
         <f>E20</f>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="F31" s="2">
         <f>F20</f>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="G31" s="2">
         <f>G20</f>
-        <v>8240</v>
+        <v>5240</v>
       </c>
       <c r="H31" s="2">
         <f>H20</f>
-        <v>8240</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2">
         <v>4000</v>
@@ -3603,11 +3603,11 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="2">
         <v>2000</v>
       </c>
@@ -3625,261 +3625,300 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="3">
         <f>D27+D28+D29+D30+D31+D32+D33</f>
-        <v>144289.5</v>
+        <v>141289.5</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" ref="E34:H34" si="5">E27+E28+E29+E30+E31+E32+E33</f>
-        <v>154455.97500000001</v>
+        <v>151455.97500000001</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="5"/>
-        <v>171954.33375000002</v>
+        <v>168954.33375000002</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="5"/>
-        <v>183799.8628375</v>
+        <v>180799.8628375</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="5"/>
-        <v>196008.67337537502</v>
-      </c>
-      <c r="J34" s="28" t="s">
+        <v>193008.67337537502</v>
+      </c>
+      <c r="J34" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="30"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="J35" s="8" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="J35" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="10"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="12"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="4">
         <f>D25-D34-D11</f>
-        <v>-176239.5</v>
+        <v>-158239.5</v>
       </c>
       <c r="E36" s="4">
         <f>E25-E34-E11</f>
-        <v>-74555.975000000006</v>
+        <v>-71555.975000000006</v>
       </c>
       <c r="F36" s="4">
         <f>F25-F34-F11</f>
-        <v>-97054.33375000002</v>
+        <v>-94054.33375000002</v>
       </c>
       <c r="G36" s="4">
         <f>G25-G34-G11</f>
-        <v>-106399.8628375</v>
+        <v>-103399.8628375</v>
       </c>
       <c r="H36" s="4">
         <f>H25-H34-H11</f>
-        <v>-114608.67337537502</v>
-      </c>
-      <c r="J36" s="8" t="s">
+        <v>-111608.67337537502</v>
+      </c>
+      <c r="J36" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="10"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="12"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="J37" s="8" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="J37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="10"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="12"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="4">
         <f>D36*0.2</f>
-        <v>-35247.9</v>
+        <v>-31647.9</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" ref="E38:H38" si="6">E36*0.2</f>
-        <v>-14911.195000000002</v>
+        <v>-14311.195000000002</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" si="6"/>
-        <v>-19410.866750000005</v>
+        <v>-18810.866750000005</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="6"/>
-        <v>-21279.972567500001</v>
+        <v>-20679.972567500001</v>
       </c>
       <c r="H38" s="4">
         <f t="shared" si="6"/>
-        <v>-22921.734675075004</v>
-      </c>
-      <c r="J38" s="8" t="s">
+        <v>-22321.734675075004</v>
+      </c>
+      <c r="J38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="10"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="12"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="J39" s="8" t="s">
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="J39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="10"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="12"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="4">
         <f>D36-D38</f>
-        <v>-140991.6</v>
+        <v>-126591.6</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" ref="E40:H40" si="7">E36-E38</f>
-        <v>-59644.780000000006</v>
+        <v>-57244.780000000006</v>
       </c>
       <c r="F40" s="4">
         <f>F36-F38</f>
-        <v>-77643.467000000019</v>
+        <v>-75243.467000000019</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="7"/>
-        <v>-85119.890270000004</v>
+        <v>-82719.890270000004</v>
       </c>
       <c r="H40" s="4">
         <f t="shared" si="7"/>
-        <v>-91686.938700300016</v>
-      </c>
-      <c r="J40" s="11" t="s">
+        <v>-89286.938700300016</v>
+      </c>
+      <c r="J40" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="5">
         <f>D40</f>
-        <v>-140991.6</v>
+        <v>-126591.6</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" ref="E42:H42" si="8">E40</f>
-        <v>-59644.780000000006</v>
+        <v>-57244.780000000006</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" si="8"/>
-        <v>-77643.467000000019</v>
+        <v>-75243.467000000019</v>
       </c>
       <c r="G42" s="5">
         <f t="shared" si="8"/>
-        <v>-85119.890270000004</v>
+        <v>-82719.890270000004</v>
       </c>
       <c r="H42" s="5">
         <f t="shared" si="8"/>
-        <v>-91686.938700300016</v>
+        <v>-89286.938700300016</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="29">
         <f>-D12+(D40/(1+0.05))+(E40/((1+0.05)^2))+(F40/((1+0.05)^3))+(G40/((1+0.05)^4))+(H40/((1+0.05)^5))</f>
-        <v>-439666.09403101442</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+        <v>-402846.77859292907</v>
+      </c>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="14">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="30">
         <f>H42</f>
-        <v>-91686.938700300016</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+        <v>-89286.938700300016</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="J36:N36"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
@@ -3896,45 +3935,6 @@
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="J36:N36"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/LABORATORIO/PECL1/Viabilidad.xlsx
+++ b/LABORATORIO/PECL1/Viabilidad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\GitHub\Gestion-de-Proyectos\LABORATORIO\PECL1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFDD28E-6C64-45B3-B034-E917582D9D82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAF99FE-6DC8-4CB8-8128-70C74F23B67B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Viabilidad_Optimista" sheetId="1" r:id="rId1"/>
@@ -342,6 +342,12 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -351,34 +357,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -399,16 +390,25 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,9 +747,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,23 +767,23 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="6">
         <v>1000</v>
       </c>
@@ -801,11 +801,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="6">
         <v>3500</v>
       </c>
@@ -823,11 +823,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="6">
         <v>2500</v>
       </c>
@@ -845,11 +845,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="2">
         <v>750</v>
       </c>
@@ -867,11 +867,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="2">
         <v>4000</v>
       </c>
@@ -889,11 +889,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="2">
         <v>3500</v>
       </c>
@@ -911,11 +911,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="2">
         <v>25000</v>
       </c>
@@ -933,11 +933,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="2">
         <v>4200</v>
       </c>
@@ -955,11 +955,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="3">
         <f>+D3+D4+D6+D7+D8+D9+D10</f>
         <v>41950</v>
@@ -982,38 +982,38 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="27">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="16">
         <f>D11+E11+F11+G11+H11</f>
         <v>42350</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="2">
         <f>D3/5</f>
         <v>200</v>
@@ -1036,11 +1036,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="2">
         <f>D4/5</f>
         <v>700</v>
@@ -1063,11 +1063,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="2">
         <f>D7/5</f>
         <v>800</v>
@@ -1090,11 +1090,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="2">
         <f>D8/5</f>
         <v>700</v>
@@ -1117,11 +1117,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="2">
         <f>D9/5</f>
         <v>5000</v>
@@ -1144,11 +1144,11 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="2">
         <f>D10/5</f>
         <v>840</v>
@@ -1171,11 +1171,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="3">
         <f>D14+D15+D17+D18+D19+D16</f>
         <v>8240</v>
@@ -1198,41 +1198,41 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="27">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="16">
         <f>D20+E20+F20+G20+H20</f>
         <v>41200</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="F23" s="6">
         <v>200000</v>
@@ -1245,20 +1245,20 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="4">
         <f>10*5000</f>
         <v>50000</v>
       </c>
       <c r="E24" s="4">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="F24" s="4">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="G24" s="4">
         <v>350000</v>
@@ -1268,22 +1268,22 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="5">
         <f>D24+D23</f>
         <v>50000</v>
       </c>
       <c r="E25" s="5">
         <f>E24+E23</f>
-        <v>350000</v>
+        <v>380000</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:H25" si="2">F24+F23</f>
-        <v>450000</v>
+        <v>470000</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="2"/>
@@ -1295,23 +1295,23 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="2">
         <v>124984.5</v>
       </c>
@@ -1333,11 +1333,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="2">
         <v>3600</v>
       </c>
@@ -1359,11 +1359,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="2">
         <v>5000</v>
       </c>
@@ -1385,11 +1385,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="2">
         <v>465</v>
       </c>
@@ -1411,11 +1411,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="2">
         <f>D20</f>
         <v>8240</v>
@@ -1438,11 +1438,11 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2">
         <v>15000</v>
@@ -1458,11 +1458,11 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="2">
         <v>2000</v>
       </c>
@@ -1480,11 +1480,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="3">
         <f>D27+D28+D29+D30+D31+D32+D33</f>
         <v>144289.5</v>
@@ -1505,48 +1505,48 @@
         <f t="shared" si="4"/>
         <v>230681.17337537502</v>
       </c>
-      <c r="J34" s="28" t="s">
+      <c r="J34" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="30"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="J35" s="8" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="J35" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="10"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="12"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="4">
         <f>D25-D34-D11</f>
         <v>-136239.5</v>
       </c>
       <c r="E36" s="4">
         <f>E25-E34-E11</f>
-        <v>183444.02499999999</v>
+        <v>213444.02499999999</v>
       </c>
       <c r="F36" s="4">
         <f>F25-F34-F11</f>
-        <v>265845.66625000001</v>
+        <v>285845.66625000001</v>
       </c>
       <c r="G36" s="4">
         <f>G25-G34-G11</f>
@@ -1556,48 +1556,48 @@
         <f>H25-H34-H11</f>
         <v>519218.82662462501</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="10"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="12"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="J37" s="8" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="J37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="10"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="12"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="4">
-        <f>D36*0.2</f>
-        <v>-27247.9</v>
+        <f>D36*0.2*(-1)</f>
+        <v>27247.9</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" ref="E38:H38" si="5">E36*0.2</f>
-        <v>36688.805</v>
+        <v>42688.805</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" si="5"/>
-        <v>53169.133250000006</v>
+        <v>57169.133250000006</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="5"/>
@@ -1607,48 +1607,48 @@
         <f t="shared" si="5"/>
         <v>103843.76532492501</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="10"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="12"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="J39" s="8" t="s">
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="J39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="10"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="12"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="4">
         <f>D36-D38</f>
-        <v>-108991.6</v>
+        <v>-163487.4</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" ref="E40:H40" si="6">E36-E38</f>
-        <v>146755.22</v>
+        <v>170755.22</v>
       </c>
       <c r="F40" s="4">
         <f t="shared" si="6"/>
-        <v>212676.533</v>
+        <v>228676.533</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="6"/>
@@ -1658,100 +1658,99 @@
         <f t="shared" si="6"/>
         <v>415375.0612997</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="5">
         <f>D40</f>
-        <v>-108991.6</v>
+        <v>-163487.4</v>
       </c>
       <c r="E42" s="5">
         <f>D42+E40</f>
-        <v>37763.619999999995</v>
+        <v>7267.820000000007</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" ref="F42:H42" si="7">E42+F40</f>
-        <v>250440.15299999999</v>
+        <v>235944.353</v>
       </c>
       <c r="G42" s="5">
         <f t="shared" si="7"/>
-        <v>548666.26273000007</v>
+        <v>534170.46273000003</v>
       </c>
       <c r="H42" s="5">
         <f t="shared" si="7"/>
-        <v>964041.32402970013</v>
+        <v>949545.52402970009</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="29">
         <f>-D12+(D40/(1+0.05))+(E40/((1+0.05)^2))+(F40/((1+0.05)^3))+(G40/((1+0.05)^4))+(H40/((1+0.05)^5))</f>
-        <v>741486.36032797419</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+        <v>725175.70748270908</v>
+      </c>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="14">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="30">
         <f>H42</f>
-        <v>964041.32402970013</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+        <v>949545.52402970009</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="J36:N36"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:H37"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:C3"/>
@@ -1768,28 +1767,29 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="J36:N36"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="J34:N34"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:H37"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="J37:N37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1803,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45:H45"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,9 +1822,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1842,23 +1842,23 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="7">
         <v>1000</v>
       </c>
@@ -1876,11 +1876,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="7">
         <v>3500</v>
       </c>
@@ -1898,11 +1898,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="7">
         <v>2500</v>
       </c>
@@ -1920,11 +1920,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="2">
         <v>750</v>
       </c>
@@ -1942,11 +1942,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="2">
         <v>4000</v>
       </c>
@@ -1964,11 +1964,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="2">
         <v>3500</v>
       </c>
@@ -1986,11 +1986,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="2">
         <v>25000</v>
       </c>
@@ -2008,11 +2008,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="2">
         <v>4200</v>
       </c>
@@ -2030,11 +2030,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="3">
         <f>+D3+D4+D6+D7+D8+D9+D10</f>
         <v>41950</v>
@@ -2057,38 +2057,38 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="27">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="16">
         <f>D11+E11+F11+G11+H11</f>
         <v>42350</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="2">
         <f>D3/5</f>
         <v>200</v>
@@ -2111,11 +2111,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="2">
         <f>D4/5</f>
         <v>700</v>
@@ -2138,11 +2138,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="2">
         <f>D7/5</f>
         <v>800</v>
@@ -2165,11 +2165,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="2">
         <f>D8/5</f>
         <v>700</v>
@@ -2192,11 +2192,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="2">
         <f>D9/5</f>
         <v>5000</v>
@@ -2219,11 +2219,11 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="2">
         <f>D10/5</f>
         <v>840</v>
@@ -2246,11 +2246,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="3">
         <f>D14+D15+D17+D18+D19+D16</f>
         <v>8240</v>
@@ -2273,38 +2273,38 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="27">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="16">
         <f>D20+E20+F20+G20+H20</f>
         <v>41200</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6">
         <v>75000</v>
@@ -2320,11 +2320,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="4">
         <v>35000</v>
       </c>
@@ -2342,11 +2342,11 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="5">
         <f>D24+D23</f>
         <v>35000</v>
@@ -2369,23 +2369,23 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="2">
         <v>124984.5</v>
       </c>
@@ -2407,11 +2407,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="2">
         <v>3600</v>
       </c>
@@ -2433,11 +2433,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="2">
         <v>5000</v>
       </c>
@@ -2459,11 +2459,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="2">
         <v>465</v>
       </c>
@@ -2485,11 +2485,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="2">
         <f>D20</f>
         <v>8240</v>
@@ -2512,11 +2512,11 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2">
         <v>5000</v>
@@ -2532,11 +2532,11 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="2">
         <v>2000</v>
       </c>
@@ -2554,11 +2554,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="3">
         <f>D27+D28+D29+D30+D31+D32+D33</f>
         <v>144289.5</v>
@@ -2579,37 +2579,37 @@
         <f t="shared" si="3"/>
         <v>185013.67337537502</v>
       </c>
-      <c r="J34" s="28" t="s">
+      <c r="J34" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="30"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="J35" s="8" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="J35" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="10"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="12"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="4">
         <f>D25-D34-D11+D23</f>
         <v>-151239.5</v>
@@ -2630,37 +2630,37 @@
         <f>H25-H34-H11+H23</f>
         <v>214886.32662462498</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="10"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="12"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="J37" s="8" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="J37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="10"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="12"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="4">
         <f>D36*0.2</f>
         <v>-30247.9</v>
@@ -2681,40 +2681,40 @@
         <f t="shared" si="4"/>
         <v>42977.265324925</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="10"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="12"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="J39" s="8" t="s">
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="J39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="10"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="12"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="4">
-        <f>D36-D38</f>
-        <v>-120991.6</v>
+        <f>D36-D38*(-1)</f>
+        <v>-181487.4</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" ref="E40:H40" si="5">E36-E38</f>
@@ -2732,122 +2732,83 @@
         <f t="shared" si="5"/>
         <v>171909.0612997</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="5">
         <f>D40</f>
-        <v>-120991.6</v>
+        <v>-181487.4</v>
       </c>
       <c r="E42" s="5">
         <f>D42+E40</f>
-        <v>-45836.380000000005</v>
+        <v>-106332.18</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" ref="F42:H42" si="6">E42+F40</f>
-        <v>66120.152999999977</v>
+        <v>5624.3529999999882</v>
       </c>
       <c r="G42" s="5">
         <f t="shared" si="6"/>
-        <v>205799.26272999996</v>
+        <v>145303.46272999997</v>
       </c>
       <c r="H42" s="5">
         <f t="shared" si="6"/>
-        <v>377708.32402969996</v>
+        <v>317212.52402969997</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="29">
         <f>-D12+(D40/(1+0.05))+(E40/((1+0.05)^2))+(F40/((1+0.05)^3))+(G40/((1+0.05)^4))+(H40/((1+0.05)^5))</f>
-        <v>256909.76440147776</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+        <v>199294.71678243019</v>
+      </c>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="14">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="30">
         <f>H42</f>
-        <v>377708.32402969996</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+        <v>317212.52402969997</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="J36:N36"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
     <mergeCell ref="J40:N40"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="D21:H21"/>
@@ -2864,6 +2825,45 @@
     <mergeCell ref="J39:N39"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="J36:N36"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2874,8 +2874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2893,9 +2893,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2913,23 +2913,23 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="7">
         <v>1000</v>
       </c>
@@ -2947,11 +2947,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="7">
         <v>3500</v>
       </c>
@@ -2969,11 +2969,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="7">
         <v>2500</v>
       </c>
@@ -2991,11 +2991,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="2">
         <v>750</v>
       </c>
@@ -3013,11 +3013,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="2">
         <v>4000</v>
       </c>
@@ -3035,11 +3035,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="2">
         <v>3500</v>
       </c>
@@ -3057,11 +3057,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="2">
         <v>25000</v>
       </c>
@@ -3079,11 +3079,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="2">
         <v>4200</v>
       </c>
@@ -3101,11 +3101,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="3">
         <f>+D3+D4+D6+D7+D8+D9+D10</f>
         <v>41950</v>
@@ -3128,38 +3128,38 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="27">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="16">
         <f>D11+E11+F11+G11+H11</f>
         <v>42350</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="2">
         <f>D3/5</f>
         <v>200</v>
@@ -3182,11 +3182,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="2">
         <f>D4/5</f>
         <v>700</v>
@@ -3209,11 +3209,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="2">
         <f>D7/5</f>
         <v>800</v>
@@ -3236,11 +3236,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="2">
         <f>D8/5</f>
         <v>700</v>
@@ -3263,11 +3263,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="2">
         <f>D9/5</f>
         <v>5000</v>
@@ -3290,11 +3290,11 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="2">
         <f>D10/5</f>
         <v>840</v>
@@ -3317,11 +3317,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="3">
         <f>D14+D15+D17+D18+D19+D16</f>
         <v>8240</v>
@@ -3344,119 +3344,119 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="27">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="16">
         <f>D20+E20+F20+G20+H20</f>
         <v>41200</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6">
-        <v>5000</v>
+        <v>55000</v>
       </c>
       <c r="F23" s="6">
-        <v>10000</v>
+        <v>75000</v>
       </c>
       <c r="G23" s="6">
-        <v>7500</v>
+        <v>70000</v>
       </c>
       <c r="H23" s="6">
-        <v>6500</v>
+        <v>106500</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="4">
         <v>10000</v>
       </c>
       <c r="E24" s="4">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="F24" s="4">
-        <v>65000</v>
+        <v>95000</v>
       </c>
       <c r="G24" s="4">
-        <v>70000</v>
+        <v>105000</v>
       </c>
       <c r="H24" s="4">
-        <v>75000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="5">
         <f>D24+D23</f>
         <v>10000</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:H25" si="2">E24+E23</f>
-        <v>80000</v>
+        <v>150000</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="2"/>
-        <v>75000</v>
+        <v>170000</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="2"/>
-        <v>77500</v>
+        <v>175000</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="2"/>
-        <v>81500</v>
+        <v>221500</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="2">
         <v>124984.5</v>
       </c>
@@ -3478,11 +3478,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="2">
         <v>3600</v>
       </c>
@@ -3504,11 +3504,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="2">
         <v>5000</v>
       </c>
@@ -3530,11 +3530,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="2">
         <v>465</v>
       </c>
@@ -3556,11 +3556,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="2">
         <f>D20</f>
         <v>8240</v>
@@ -3583,11 +3583,11 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2">
         <v>4000</v>
@@ -3603,11 +3603,11 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="2">
         <v>2000</v>
       </c>
@@ -3625,11 +3625,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="3">
         <f>D27+D28+D29+D30+D31+D32+D33</f>
         <v>144289.5</v>
@@ -3650,236 +3650,275 @@
         <f t="shared" si="5"/>
         <v>196008.67337537502</v>
       </c>
-      <c r="J34" s="28" t="s">
+      <c r="J34" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="30"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="J35" s="8" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="J35" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="10"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="12"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="4">
         <f>D25-D34-D11</f>
         <v>-176239.5</v>
       </c>
       <c r="E36" s="4">
         <f>E25-E34-E11</f>
-        <v>-74555.975000000006</v>
+        <v>-4555.9750000000058</v>
       </c>
       <c r="F36" s="4">
         <f>F25-F34-F11</f>
-        <v>-97054.33375000002</v>
+        <v>-2054.3337500000198</v>
       </c>
       <c r="G36" s="4">
         <f>G25-G34-G11</f>
-        <v>-106399.8628375</v>
+        <v>-8899.8628374999971</v>
       </c>
       <c r="H36" s="4">
         <f>H25-H34-H11</f>
-        <v>-114608.67337537502</v>
-      </c>
-      <c r="J36" s="8" t="s">
+        <v>25391.326624624984</v>
+      </c>
+      <c r="J36" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="10"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="12"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="J37" s="8" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="J37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="10"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="12"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="4">
-        <f>D36*0.2</f>
-        <v>-35247.9</v>
+        <f>(D36*0.2)*(-1)</f>
+        <v>35247.9</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" ref="E38:H38" si="6">E36*0.2</f>
-        <v>-14911.195000000002</v>
+        <f>E36*0.2*(-1)</f>
+        <v>911.19500000000119</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="6"/>
-        <v>-19410.866750000005</v>
+        <f>F36*0.2*(-1)</f>
+        <v>410.866750000004</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="6"/>
-        <v>-21279.972567500001</v>
+        <f>G36*0.2*(-1)</f>
+        <v>1779.9725674999995</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="6"/>
-        <v>-22921.734675075004</v>
-      </c>
-      <c r="J38" s="8" t="s">
+        <f>H36*0.2*(-1)</f>
+        <v>-5078.265324924997</v>
+      </c>
+      <c r="J38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="10"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="12"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="J39" s="8" t="s">
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="J39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="10"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="12"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="4">
         <f>D36-D38</f>
-        <v>-140991.6</v>
+        <v>-211487.4</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" ref="E40:H40" si="7">E36-E38</f>
-        <v>-59644.780000000006</v>
+        <f t="shared" ref="E40:H40" si="6">E36-E38</f>
+        <v>-5467.1700000000073</v>
       </c>
       <c r="F40" s="4">
         <f>F36-F38</f>
-        <v>-77643.467000000019</v>
+        <v>-2465.2005000000236</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="7"/>
-        <v>-85119.890270000004</v>
+        <f t="shared" si="6"/>
+        <v>-10679.835404999996</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="7"/>
-        <v>-91686.938700300016</v>
-      </c>
-      <c r="J40" s="11" t="s">
+        <f t="shared" si="6"/>
+        <v>30469.59194954998</v>
+      </c>
+      <c r="J40" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="5">
         <f>D40</f>
-        <v>-140991.6</v>
+        <v>-211487.4</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" ref="E42:H42" si="8">E40</f>
-        <v>-59644.780000000006</v>
+        <f>D42+E40</f>
+        <v>-216954.57</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="8"/>
-        <v>-77643.467000000019</v>
+        <f>E42+F40</f>
+        <v>-219419.77050000004</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="8"/>
-        <v>-85119.890270000004</v>
+        <f t="shared" ref="G42:H42" si="7">F42+G40</f>
+        <v>-230099.60590500003</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="8"/>
-        <v>-91686.938700300016</v>
+        <f t="shared" si="7"/>
+        <v>-199630.01395545006</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="29">
         <f>-D12+(D40/(1+0.05))+(E40/((1+0.05)^2))+(F40/((1+0.05)^3))+(G40/((1+0.05)^4))+(H40/((1+0.05)^5))</f>
-        <v>-439666.09403101442</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+        <v>-235767.59310610587</v>
+      </c>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="14">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="30">
         <f>H42</f>
-        <v>-91686.938700300016</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+        <v>-199630.01395545006</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="J36:N36"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
@@ -3896,45 +3935,6 @@
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="J36:N36"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
